--- a/biology/Histoire de la zoologie et de la botanique/François-Hilaire_Gilbert/François-Hilaire_Gilbert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François-Hilaire_Gilbert/François-Hilaire_Gilbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Hilaire_Gilbert</t>
+          <t>François-Hilaire_Gilbert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Hilaire Gilbert, né à Châtellerault le 18 mars 1757 et décédé à Sigueruelo, en Castille (Espagne) le 7 septembre 1800, est un vétérinaire français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Hilaire_Gilbert</t>
+          <t>François-Hilaire_Gilbert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 14 ans, il est envoyé au collège de Montaigu, à Paris, pour poursuivre ses études ; il en est renvoyé, ainsi que du collège du Cardinal-le-Moine, pour son insolence. Ses parents le placent alors chez un procureur, mais ce dernier l’estime incapable de tout, et son père arrête de payer sa pension. Ce serait par la lecture de Buffon que naquit la passion de Gilbert pour le cheval ; à l’audience du ministre Necker, il obtient une place gratuite à l’École vétérinaire d’Alfort, où il devient professeur après seulement 3 ans d’études, puis directeur adjoint.
 Il remporte divers prix sur des questions relatives à l’agriculture, dont la principale concernait les prairies artificielles, de la Société royale d’agriculture de Paris dont il devient correspondant en 1787. Il entre dans la première formation de l’Institut, et il est choisi par le gouvernement pour organiser et diriger les établissements agricoles de Sceaux, de Versailles et de Rambouillet, mais les deux premiers sont vite supprimés, et Gilbert se consacre au domaine de Rambouillet, surtout consacré aux mérinos.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Hilaire_Gilbert</t>
+          <t>François-Hilaire_Gilbert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches sur les moyens d’étendre et de perfectionner la culture des prairies artificielles en Picardie [Mémoire couronné en 1787 par l'Académie d'Amiens], 1787 ; Paris : J.-B. Dumoulin, 1880, in-16, XXXV-154 p.
 Traité des prairies artificielles ou Recherches sur les espèces de plantes qu’on peut cultiver avec le plus d’avantage en prairies artificielles, dans la généralité de Paris, et sur la culture qui leur convient le mieux [couronné en 1787 pour le prix proposé par la Société royale d’agriculture le 30 mars 1786], Paris : Impr. de la Ve d’Houry et Debure, 1789, in-8°, IV-300 p. Texte en ligne ; revu en 1801 par Cretté-Palluel, ancien membre de la Société royale d’agriculture et maître de poste à Dugny ; éd. en 1802, in-12 ; 6e éd. (revue par M. Ch. Yvart, et précédée d’une notice historique sur Gilbert par Cuvier), Paris : Huzard, 1826, in-8°, XXXII-384 p.
